--- a/app/static/data/admin/KPIs.xlsx
+++ b/app/static/data/admin/KPIs.xlsx
@@ -58,6 +58,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1232,6 +1300,506 @@
         <v>44027.656118279</v>
       </c>
     </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>out-of-state</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>44027.66921391546</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>out-of-state</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>44027.66937459796</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>out-of-state</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>44027.66950079981</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>out-of-state</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>44027.66965874392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>44027.66973322234</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Humanities &amp; Liberal Arts</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>44027.66982667609</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>out-of-state</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>44027.66995940193</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>44027.67013829082</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>44027.67032781119</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>44027.67051353793</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>44027.6708477892</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>44027.67152561496</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>44027.67189825617</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>44027.67257344551</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>44027.67270165341</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>44027.67284026599</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>44027.67912193229</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>44027.68164028682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/data/admin/KPIs.xlsx
+++ b/app/static/data/admin/KPIs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1800,6 +1800,356 @@
         <v>44027.68164028682</v>
       </c>
     </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>44027.83727224368</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>44027.83750764942</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>44027.8391876129</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>44027.83994804164</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>44027.84009870001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>44027.84016142591</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>44027.84090803644</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>44027.84121140962</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>44027.84150068403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>44027.84164078156</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>44027.84324515793</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>in-state</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>44027.84421763499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/data/admin/KPIs.xlsx
+++ b/app/static/data/admin/KPIs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
@@ -3270,6 +3270,511 @@
         <v>44027.91423251641</v>
       </c>
     </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>44027.94264265778</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>44027.94277744336</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Biology &amp; Life Science</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>44027.94283485281</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Communications &amp; Journalism</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>44027.94289254554</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Computers &amp; Mathematics</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>44027.942953707</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>44027.94301190184</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>44027.94301481072</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>44027.94306389108</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Humanities &amp; Liberal Arts</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>44027.94316851404</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Industrial Arts &amp; Consumer Services</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>44027.94322301905</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Law &amp; Public Policy</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>44027.94327911986</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>44027.94332722337</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Psychology &amp; Social Work</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>44027.94338042841</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>44027.943435954</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>44027.94432311451</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Social Science</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>44027.94437583407</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H120" s="3" t="n">
+        <v>44027.94500397403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/data/admin/KPIs.xlsx
+++ b/app/static/data/admin/KPIs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
@@ -3775,6 +3775,291 @@
         <v>44027.94500397403</v>
       </c>
     </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>44027.94946228566</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>44027.9498813575</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H123" s="3" t="n">
+        <v>44027.9507388808</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="n">
+        <v>44027.95085240297</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H125" s="3" t="n">
+        <v>44027.95090033851</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H126" s="3" t="n">
+        <v>44027.95107450551</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H127" s="3" t="n">
+        <v>44027.95122679309</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H128" s="3" t="n">
+        <v>44027.95144308544</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H129" s="3" t="n">
+        <v>44027.95169572215</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Physical Sciences</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H130" s="3" t="n">
+        <v>44027.95203934639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/data/admin/KPIs.xlsx
+++ b/app/static/data/admin/KPIs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
@@ -4060,6 +4060,91 @@
         <v>44027.95203934639</v>
       </c>
     </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H131" s="3" t="n">
+        <v>44027.96446318178</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Less than 1 Year</t>
+        </is>
+      </c>
+      <c r="H132" s="3" t="n">
+        <v>44027.96513246952</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H133" s="3" t="n">
+        <v>44027.9652490905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/data/admin/KPIs.xlsx
+++ b/app/static/data/admin/KPIs.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15660" yWindow="810" windowWidth="9075" windowHeight="15480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15480" windowWidth="9075" xWindow="15660" yWindow="810"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YTD_Status" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="YTD_Status" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,9 +16,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy/mm/dd\ h:mm:ss;@" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -54,22 +54,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="44"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I575"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
       <selection activeCell="B450" sqref="B450"/>
@@ -450,15 +450,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
-    <col width="13.75" customWidth="1" min="1" max="1"/>
-    <col width="19.5" customWidth="1" min="2" max="2"/>
-    <col width="21.25" customWidth="1" min="3" max="3"/>
-    <col width="16.25" customWidth="1" min="4" max="4"/>
-    <col width="40.75" customWidth="1" min="5" max="5"/>
-    <col width="28.5" customWidth="1" min="6" max="6"/>
-    <col width="19.5" customWidth="1" min="7" max="7"/>
-    <col width="24.25" customWidth="1" min="8" max="8"/>
-    <col width="17.875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" width="13.75"/>
+    <col customWidth="1" max="2" min="2" width="19.5"/>
+    <col customWidth="1" max="3" min="3" width="21.25"/>
+    <col customWidth="1" max="4" min="4" width="16.25"/>
+    <col customWidth="1" max="5" min="5" width="40.75"/>
+    <col customWidth="1" max="6" min="6" width="28.5"/>
+    <col customWidth="1" max="7" min="7" width="19.5"/>
+    <col customWidth="1" max="8" min="8" width="24.25"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="17.875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16077,8 +16077,58 @@
         <v>44028.50768928446</v>
       </c>
     </row>
+    <row r="576">
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="H576" s="5" t="n">
+        <v>44032.67448542513</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="H577" s="5" t="n">
+        <v>44032.67578379867</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>